--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/67_Samsun_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/67_Samsun_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FF81FB-ED0B-468A-8128-DB829B76AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D382BF6-29B2-45FD-BB99-FF3DF3F29CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="665" xr2:uid="{514F8620-094D-466C-B5DC-CE83067AEDAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{36DF41CE-6308-4288-8500-CF0D878B3B14}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1003,14 +1003,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8096E29A-92F7-4B10-A953-16349482C3F9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22CDCD8B-F303-46AD-8A7B-F88F26ABBE4F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A15009C7-F966-421E-95A2-7C17594D256D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0797DBD8-6EFC-4C74-9025-40754B99C1A0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{99E044DD-4745-4EC8-B782-72BAC14A9E1C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{FB361AA5-B76B-4525-86A2-32676116F334}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{D8A6D7D0-65FD-445C-B329-D4277CB5742A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C76F5DC9-E6A2-425F-BE45-79D3461E5469}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{408323EC-B9FA-48B4-8C2A-371237E9D222}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22C37E21-8A4A-4457-B4B8-FF736B845E8F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5E206F35-837C-42D3-B128-5F2F0429DC96}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F629EB7B-2FFC-4410-9DD0-FC9EE400B4F3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{78511D82-D2E9-4026-A1C0-349F6B04DFF8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B984C7C3-B3CA-43DE-B850-85F461BB95B3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A60F7B3A-71DD-4186-9695-86FAC4635012}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{30D1D2B3-5447-45C9-8B8B-05AD48B4056D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC0F0C-DE7B-4C2C-A905-03B58D56045D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F383F9FC-80DB-4345-802A-E9576878D7CB}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2688,17 +2688,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6071148B-806A-4126-B2BE-B086095845EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62425162-8193-431B-8435-B5EC3C5A21F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D912222F-15C3-4317-8452-5FBCFA180193}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63EE8225-428E-4151-9E8D-2265A15926D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4781E69-01C6-40B4-B7AC-B38D34FF9B15}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34949DDA-0610-4FCB-9511-5CF4B61702C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{873EE5C8-2068-4643-A2AD-35345135AF7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{619B344A-C35C-4178-AAE7-793071C1BA16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9ED9FAE6-0A50-49C9-BB67-8320DA205BDA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{86FD4624-D871-493D-8544-14397F37FA62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6B22F44-697E-42F3-8361-06613C992A50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ACEDF17-D3F0-4E5B-8C1A-411C387C49DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4EDD7BB-53A5-4637-8379-2917E46A2D9F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{951766CF-D3B5-426F-8C05-047E25F48AD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B8CCC24-1D85-4F1B-9A9B-1F270BC1D6C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CC7224B-3011-4A99-9EBB-CF6757183D3C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75262860-386B-456F-A124-662424439574}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21E44299-D1CA-4B70-9B53-4C0DF2823EF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DF45297-A339-4F53-B525-802C09D59EF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A07C4382-09BE-4912-AFE1-655D2A86A397}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83FB0215-78F1-45AC-8BAE-805EA05E744B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{263DF52E-B65D-45F0-BAC7-163DDFC5FE08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B10298B-4E7A-446A-97E2-1B470BC6D3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8D4B41-9E21-468B-8AC8-EDDBE2524B97}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4004,17 +4004,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F745A6A7-25BF-44E7-A7C0-07EC48382632}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77B738E3-874D-403C-BC1C-8EC05992E155}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77640E27-5554-498A-93DD-8B4C83985D3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B58E7415-DF68-4A9F-B46E-6577646F0A1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{119AD1AB-2F08-4C66-B513-3CA95278E4F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80671678-4C0F-4425-BA55-0E1FD917CCF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1C2C833-D760-4B15-B60C-B3E4DA3CCF69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBD4E28D-44AF-4792-8946-98657A874ED5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{284C3347-28E3-445C-A12C-AB572495892A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ECB26811-8A4B-4945-B5A5-A183573370A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{824ADDD8-45E3-4B51-A372-439D6834335A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B707CCBA-B403-4F00-8861-A3F75FD53963}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A8DF0B6-E5C7-458A-9053-1CCBA80502FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{184BC73B-7892-4A49-9078-D502200F240F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFE2BEDE-6740-49E4-B346-7ECDDFF87292}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85601C36-6C4D-4331-863D-02C8E5DF5F5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05DB5832-D7C6-4401-B69F-1A0DB86D25CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F44949E-AEB0-490D-9113-349BC2C6ECCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E558BC0E-7146-4227-BF90-7935CCDCB447}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{67668652-0A0E-4F46-B30C-13556E843F59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B8CF199-8C4E-4A23-BF94-7498B0EC0F8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA0D082E-4A7A-4723-A7FD-A9EDCC7422CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4027,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC1F71-8ADB-4E4C-A4A2-B3D6B01E8AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B0860B-FC7E-4231-8090-944396AC01F6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5320,17 +5320,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2999D00B-EA5A-4A0D-9AD8-1B3CE5755262}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC09A114-94F9-47DE-BB9D-3BFC33E4BD30}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AD2037D3-CFFB-4847-B338-D6BAA2011DF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10E70DAF-6975-43B5-ACAA-48F4EEE963C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0DB7933-404C-4D9D-8D24-B9A766EE537E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F805F1B3-2960-41A9-8746-905E055E5B5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{104A6BCA-5DED-4F53-9E23-EC12449200DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0ED4A65-12EA-47EE-B1CA-32339CB195B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25AC0EF7-015F-415C-9E77-FC69DFB704D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CA6E19E7-4BA7-459B-B901-65B5D60681CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA36809A-B37A-47D1-983F-AECC5FBAAE18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29B19E99-5579-4A3D-BAA5-13EE55A38AF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02102212-46E1-48F3-8010-DFE69B41C656}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{130A15C1-5EEC-47C6-AC1D-A167D3476290}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71785922-6D7D-4165-A1EA-BCA7B8766C48}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48F786EF-6ACF-4C3F-8D3D-6A5D3C3A3E11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{897A51BE-1AD6-4A55-899A-5C062C14303B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8575739F-4268-4E96-AFF0-D22BB41B2B56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{274DEB29-D7F5-4441-B502-79903FFF7250}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B7250C62-B314-4736-AB28-C961F6F288EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{37012768-F42C-42DE-97A9-DCEDD8691857}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2BC75FE-D16F-4C6B-BD15-CE3DA029557F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5343,7 +5343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35814D1E-642F-4EDF-BE39-BCB7B43F2131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911AFFE7-1DF7-4843-911B-74EE4CB484AE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6632,17 +6632,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C03B64E-FC4E-466F-AF15-2112638F0E33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3765DE2-4D2C-4CF7-AF77-1E98F1419AFD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D705469-3812-4840-AF69-1320EB160719}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2416DD4-A94B-4D89-938F-6E7381A073D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{800A9D52-CBAE-4FAF-B7D8-347F57143D63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C10B0CA7-DEA1-4ECC-BFB2-2AE1282C10CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A119DD85-8A22-4259-8C3B-68706F037543}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD68562A-11C2-4DC2-BCD1-D410453DA1E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{841DF4B9-0FB2-47FE-9FB5-43E8A00064AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{358683BA-B82A-403E-ABDC-5810F42D308D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4806922F-D9E1-433F-A518-F18620A1538B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{413BCC88-4C57-4083-97D0-CFEFE0239A9D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D14B82CD-486F-4630-AC22-8807D95C21EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C63BDBAC-DB8B-47CF-8B65-499CCD6AE5A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7A2646F-C0F0-4AB8-8A13-C689002D3BEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{292FA868-943E-443B-A685-C7ED9A0A711C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D6ADA1E-C125-4318-955C-1F17BC640B05}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4216701-F183-4945-A983-5B6E06794337}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2CEC490-C146-4032-B6BD-F88501471463}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E2ABC3D2-DADE-48A1-8335-9B280D7CB13E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{45A022E5-021A-4276-A08A-F600E5670866}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E13BE19-E665-45F8-B928-8B79FAE6EB76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6655,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073F3992-2A37-422D-8B9B-7A06E1BDC0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB64C87-4107-4F0E-99BA-3CEA6426CADB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7958,17 +7958,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F85122E0-0984-4BAD-B51F-766104E19C9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A53BBB8-9E78-4629-887B-3B55A4A201D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{399D395A-D8D8-4C9C-95E9-1A73D65DB547}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C7F7F81-C97E-4A8C-9D2C-7561BC662DC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E19DA80-EA5A-4BCC-8052-AF649813E11B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13C14618-BCAE-416A-95CA-363280F9B85F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D661DB6C-EDEA-4546-950C-F14DBA1DCE8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E56EF6FD-78D7-4E45-9CCB-912FE24B959F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{42071BD6-6FD5-41C5-BFA1-893AC003F75D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B1FD8578-B6E9-4D1E-9DB3-6183F7E19DE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D98C685B-BA03-4ABC-ACC6-2C640B0EFCB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBBA5862-333D-404F-843E-B6A21DFC13A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB32CAAD-6B59-48E6-84D2-823C45BF18D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1E00C75-8B47-42FF-B634-1A75FB7F7982}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8A55BA9-0852-4C0E-9F4F-E7D5665F3A52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30A49672-50BF-42F8-8D33-799EA29BD0FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D872B06-4A58-43DE-890E-BD4232C178CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E02A49BD-312C-479B-BCDA-1B6991F1D33C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B02C346-E66F-4438-84D1-900D1CD781FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{989829AC-CACC-40BE-A5D9-2C1A46D80C98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F9F953F4-78D6-43C6-BA4D-24CD189CA970}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A95A9159-3D96-43A0-AEAD-DE15EE339527}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7981,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7EF28-D166-4406-A320-EDD72B61E3FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F515D9E8-6A8C-4047-A78E-99BCE7FC0D06}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9284,17 +9284,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE22615E-97AE-4DA6-AF30-827253FBD162}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF4DD5B6-AE80-45C2-BDC7-AC1C9D7DE666}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C57DFC8-063C-4147-B5E5-A0C86D8D4D59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A0BCF31-4A4E-4813-9B8A-411A0DF711CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D7FC827-87B6-4432-BE21-AE12443692A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1861BD04-0976-4C09-8988-8D04C4976217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC4ECEA2-093D-4FA5-8139-D61A78694969}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77A12529-793A-416A-806B-0B230CE298D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D1F85812-CEBD-44A5-9856-AC83DB3A543F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9C3D70C8-91B5-4CA2-93E2-5289112351B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{460F0B27-421B-468F-BC00-F09601872886}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DACCA0D-8809-4122-81B1-E445B41811C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A77D7844-F9D8-4C8A-A6C4-5D8171986309}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86E9A634-CA23-44FF-B76A-1E5337ADC588}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2114B13D-10E0-4E4B-A2E0-21469DF9D09E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4226F498-4F4C-4086-87A6-D88348122D49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF2C416A-83A8-42B9-98D1-AE548B8ADF24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76160A18-E342-4534-8330-29BEC568B835}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E4CB4DE-676D-43A5-A97C-C16905989F20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B05AAB24-1733-4C37-AFDE-AD83928B4AC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{80A3D1ED-82C8-4951-BDE2-268DB4B9FE43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBDCF2BD-4C19-4103-8BB0-8C93F254BFFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9307,7 +9307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E038FBB-1378-427F-B23F-82BCB1B7E344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC228F2A-BF78-437D-9424-70EDAC78E859}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10606,17 +10606,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{479E5F2B-CF8C-46D4-9C33-2DF9E32E6DB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2498942-33C0-42D1-9CE4-F94A8392F655}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{295A5EEB-B914-4046-8243-7EB9FA1AFF85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC9936D7-DCF9-4160-8617-1608088A35EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB9972DC-C73B-4CE8-BB36-9E9DCE9BD405}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CE753E2-0FAE-40DF-B6CE-39C0971D8D19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9DFD53C-85B1-44DB-A9D9-C188F7DB250A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75EC05AC-7924-4509-8099-1E361CE07C3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{23113F71-DE6E-4E00-9DD6-3C572B0DF594}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D3ACBE7D-BD2C-4948-B47C-0C7D22107DEF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A6D2EDD-0775-49EC-A4BE-B464DCD7FFC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8313B71E-00D5-48A6-99C3-925508623956}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F03ED2C4-CF49-4C77-AB65-BA241AF44688}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FB4461A-175B-486E-973F-A0C90AC3ECEF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D23786E9-7A70-459C-94D7-801E141DB6F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{560D748C-9D9B-4F68-A59B-A9A3F4C2CA08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{506E8D57-DB78-49E2-B56A-120DB077318A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94F9F00C-7D69-4825-B0FB-8E4B5B246E15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDE7F762-AED3-4E53-B09F-97C781C6DA4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{014BB7F6-5AD6-459D-B080-2BCF35FC1F2F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F3C66ED-FBDC-4A2C-AE44-740301B4E8A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{873C6814-D3F2-4BB1-9D1C-0DCE1F4AF545}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10629,7 +10629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7867A-B1FC-4259-96AB-CA810314DD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526FA138-7A0B-45F0-B291-1F1592F13207}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11928,17 +11928,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36F7F66F-7C36-4740-85E2-EC25BDF73F11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5DE1FDA-83BD-4F53-974B-79B0CDEA78D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C38D45E1-9095-4057-AFDA-C2751D998C7B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9B1BE5E-3BE9-4555-B607-90106A48218E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{521846B9-7379-4A9B-BFDB-1403CCD2BBE9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42E2DCFF-53C3-482C-A46A-51BBCFF53CCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7F59705-7EF2-495C-920F-96B899E7B20F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1AA5484-675D-4DB4-A360-C2BB69BAC34F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{720DF361-AE3D-4301-9E04-C7A05FE18F00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F87EB583-AD4E-4BD2-88DD-ABFAABCBFEB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E19ABD-0D0A-418D-B530-C060DFCD8945}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73F9EE31-0A16-4361-B45A-44636E0C95DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C92726BA-93F9-44F3-84D5-5D7D53B1E4AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBD3ECA0-BC00-433C-85BE-F36932474E1A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2B1E9F2-5C8B-40D3-ACF7-D7CC8CB9C0DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18FB3E3A-70B7-46E7-8B10-328AD7A7AB07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7E972DE-6354-4842-9BB2-60DDFD2A8689}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7205752B-8DF7-4B2D-BC41-547412B945DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF67237D-4886-4EE4-A283-52FFEB50C109}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{249BC425-7B3E-47D1-85D8-DDEAD1487D84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5F694EF9-1D57-4593-B691-E5874AEEEED3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B87B22C-A91A-435B-80C9-DA641FD54060}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11951,7 +11951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC8C0B-D0DD-4720-AB86-348D62B0E94C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1162AE-07B8-47BB-8290-166F0A40AFB7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13250,17 +13250,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B7E93D4-2B73-4719-8494-974B856DBD0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDC2DBFA-0EE9-47EA-B185-1C03B45D91CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A03199F7-2859-4BC9-96DA-5C9C4E9972C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CCF0B9F-BCE8-4C9D-BF6F-8BA158B99F40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5B9BA63-B090-4549-883C-55B23D5BF316}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6554672A-A14F-43F7-93F3-0861801780DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B38017C-7F37-451B-B114-C479903CE76B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90276064-3550-4D9A-994D-01BF09F4B189}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A5FDBCC5-9ED1-4999-844B-F4C8DF36F8E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0BDC839F-BF92-446D-BA5A-C4D05DC0A30A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5597900B-907B-46EC-8CD4-E62307A39449}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17BED2C9-1741-435C-AC5A-3F7468ED42CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4506BA6C-D7E6-4366-A32A-749773F02D76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08AF37BA-324A-4FA4-98DE-8346CD3944F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8213AB69-22C1-4178-A578-CA044E867A3B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6151579A-A3CE-4E75-8791-0B07B20551FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F73F80B3-3AE4-4BEE-83B6-9FFE35747C64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFB6CB0B-D79C-46FC-8960-7BEC404568A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D549DE4B-1535-4E80-9FB3-364EFC0D127A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{48A95C95-C8A0-4825-886E-FDB7235620C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C223344-8442-4AD3-A548-835175C6AD6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B0E27EC-7DBB-4BE4-B29A-A01FDD11988A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13273,7 +13273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE831BC1-960E-47DA-8594-A277532C793E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24097EC9-6954-43E9-9F81-EF37974CD423}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14568,17 +14568,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F634E64-7A4D-435F-9F6B-E658C0118C8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9971D256-6C48-4895-9BAF-E0FF3AE15168}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B04F1FE1-CE69-46C9-A5F7-20EDAC74FA25}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAC951D8-1A6B-4280-8274-2AE2D2F50A2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AA253C1-DF1A-4BDB-BB5A-0235FBAC3677}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A982D5F-E2B8-473B-9FFD-DBA4CF2FB080}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1005E716-1CCE-46D5-BDF6-E95A14590E06}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9CD131D-0EFD-46F6-93B7-CA33E9C25726}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3E7C766D-5169-4ACE-BCC4-DC1F51754931}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D0C2E8D4-1347-45AA-A489-65D7CDBEA5AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56C05DF7-2A70-42AF-A2CC-DA9D75A54BB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48401F3C-4079-4369-A3E2-7466854C5470}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47465054-0370-44EB-A24C-5C1CC3B31CA8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{314EA71E-720C-4C8E-9E04-A3DDC9833E53}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECF10D1A-D2FF-494F-86D6-BB387DA5AD22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79233E21-71E5-46B5-BE0D-65DB2A1D2E04}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0123BB5-894C-4D70-BC1C-D544967E3207}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84C0D983-3591-4A8C-B559-68C90BAEE694}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F52717A2-2347-4DA9-A482-F06BA950258C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0272FFCF-6E35-4020-8600-F808CE3B3413}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{938AEE22-7BAB-42C3-9781-45E8EA7431BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1405A8E8-0596-421C-8255-A116FFAF8E67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14591,7 +14591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BED7E9-B7D4-4A36-93E4-D8128DE93322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD623C2-BBBC-4098-8A12-2F2420C84389}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15886,17 +15886,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC77B12A-6509-485D-A205-C9E1219392D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A86D3CC2-6579-4373-B60C-8917C4254D39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C376F08B-B9F1-4795-8462-015FE3B206C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5FFAA98-83D3-4A64-AC25-D583026E047D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{730FEB0C-3610-4284-85C2-ECB2A9ED2EE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A2BE76F-2663-4FC5-A06C-A9E55CFEDB54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CCF624A-044B-4A83-BA72-EBD32A690014}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2B5CB13-154C-45A8-AD20-7B328B8A062F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B439194-2739-476A-92DD-A87D8CC1C2C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1577FC6E-76BC-4AEA-8772-5FF3DD39B3EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B79654B9-DD50-4FB2-AC3B-FC57C9F39FBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F87B7E4-B7E0-49C9-943E-CFDBDFCF4419}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{390880D1-0DA5-4102-A2FB-BC077AE6AA6D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9CB8334B-BD11-4EAD-B1C4-3E906C434EAB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7069898-0D31-42D3-891D-40C724DDC7AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD93922A-46E8-44EB-9F32-4AA53C9D2E0B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0EA22E7-DE8E-4665-B5FA-D68DE27B2135}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4451376A-D697-4575-BCFC-A11F1CAF4C4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F89E9C8-F180-472F-A40C-2AAC5987D3DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5A4305D9-0ECD-442E-8E13-4EDB137C550D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8C41F6DD-00DF-4FD7-8B27-FB0D6F5A2380}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2ADAD3F-13BA-439B-9C96-CE9022975831}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15909,7 +15909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16783DE-B984-4711-861B-FE91A6AD755C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D430DF58-AA35-48E6-BAFC-787F53F2B094}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17204,17 +17204,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A2A14DA-6441-49A7-AAD9-E9A7D13DB82C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2349E766-255A-4E53-BBBD-9E92B6CCDA08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{857834A2-06A5-4D37-81CA-850ED08B216F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6F1A311-A6D5-484D-9F4A-F6CD88F9C240}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3D4FFD5-2D50-4A78-9B95-A68CC2DAD8A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D4C7CBD-CD14-4662-AB7A-279AE18AECC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FFD1C6A-4B00-4DF8-9264-131A65203198}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CAC5BAC-9E21-4267-B911-02DABB2DDEAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{26D8EC93-C5F4-4CCF-B9B6-4CADB15BBFB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDD53917-32D3-4674-9D56-B273D5CFB9B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4865CED-2CBD-45C9-AC17-795FCA1F07E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E126635E-8BAB-4798-B9F0-D9E451D0BAB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82A137EA-1F40-45F0-BE2E-DAB613B09A52}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B734C9FD-C301-4CE0-987F-8B1368566197}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{384EAEDB-5915-4493-9161-096AB9EB87F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5998DBC-325D-4F33-9A85-55D2B0EF2216}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{248ED7CD-3D1D-48B7-9EA2-8218674EE17A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D59D78-4883-43D4-AAF0-27D8E19A6C09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2A10975-1C94-4651-A15A-76782EB0D36D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A70F8DF7-8B76-49CC-8C1A-F79B8695FE8D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{559D48DA-E34C-4584-8A53-A2E73A739DB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C6C0073-A331-4EDD-9E9C-F069140820F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
